--- a/target/classes/LoginTestData.xlsx
+++ b/target/classes/LoginTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B461B2E9-7A47-4FFE-8D41-F034CFD20149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2CC98B6D-AAF6-4865-BB54-F52018BCD1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="4056" windowWidth="15660" windowHeight="8880" xr2:uid="{DC180B99-74E2-490D-AAFE-4143ADAC3E97}"/>
+    <workbookView xWindow="1740" yWindow="5100" windowWidth="15660" windowHeight="8880" xr2:uid="{DC180B99-74E2-490D-AAFE-4143ADAC3E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Password</t>
   </si>
@@ -53,18 +53,12 @@
     <t>#Abcdefgh12$</t>
   </si>
   <si>
-    <t>archanapra@yopmail.com</t>
-  </si>
-  <si>
     <t>Test@123456</t>
   </si>
   <si>
     <t>sanjana@intuitiveapps.com</t>
   </si>
   <si>
-    <t>ishita@yopmail.com</t>
-  </si>
-  <si>
     <t>Uset Type</t>
   </si>
   <si>
@@ -83,70 +77,52 @@
     <t>SeeWyman@bsgdulpk.mailosaur.net</t>
   </si>
   <si>
-    <t>irvinchamplin@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
     <t>terabogan@bsgdulpk.mailosaur.net</t>
   </si>
   <si>
-    <t>dennybruen@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>rogeliorowe@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>keenanrogahn@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>owenkoch@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>darinconn@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>elwandakessler@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>robritchie@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>alysonboyer@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>eleonorafriesen@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>newtonschultz@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>candicetreutel@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>merlekris@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>mellisakemmer@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>dwainkunde@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>reynaldareichel@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>mymarquardt@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>julesbatz@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>mervinpouros@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>lincolnemmerich@bsgdulpk.mailosaur.net</t>
-  </si>
-  <si>
-    <t>thoratorphy@bsgdulpk.mailosaur.net</t>
+    <t>Test@12345</t>
+  </si>
+  <si>
+    <t>ashleadietrich@bsgdulpk.mailosaur.net</t>
+  </si>
+  <si>
+    <t>prasad@yopmail.com</t>
+  </si>
+  <si>
+    <t>kaitlynemmerich@bsgdulpk.mailosaur.net</t>
+  </si>
+  <si>
+    <t>New Business User</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>shavonnemorissette@bsgdulpk.mailosaur.net</t>
+  </si>
+  <si>
+    <t>cristobalvon@bsgdulpk.mailosaur.net</t>
+  </si>
+  <si>
+    <t>sharriprosacco@bsgdulpk.mailosaur.net</t>
+  </si>
+  <si>
+    <t>joeymuller@bsgdulpk.mailosaur.net</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>orenrogahn@bsgdulpk.mailosaur.net</t>
+  </si>
+  <si>
+    <t>leanschimmel@bsgdulpk.mailosaur.net</t>
+  </si>
+  <si>
+    <t>robhintz@bsgdulpk.mailosaur.net</t>
   </si>
 </sst>
 </file>
@@ -154,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,11 +145,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF292930"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <sz val="8"/>
@@ -203,10 +174,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -525,21 +495,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D29FC09-16E4-4AAE-AD6F-8BA659C084F3}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5546875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="34.9765625"/>
+    <col min="1" max="1" customWidth="true" width="19.6640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.87109375"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.51171875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -548,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -556,27 +526,27 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -584,13 +554,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -603,62 +573,70 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{3EFE526D-E67B-4161-A0BF-999033306BFC}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{8DB4FE19-A2BD-4B50-BB01-4E1DBAC4B7D1}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{84508B46-286F-4616-9FFF-E7F2ABB53BFB}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{748E73B4-926F-4F7C-9290-C28569149D78}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{20523112-3FC2-42AD-9B97-D24C8D8C07A2}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{5830DD21-CC70-43F6-A18E-B2A75F0546EB}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{A5C8BAB3-AE7E-44EE-A895-71855DECE82D}"/>
-    <hyperlink ref="C6" r:id="rId8" xr:uid="{5944DD7B-AE47-4EE5-9CFD-C7C8F40B81BE}"/>
-    <hyperlink ref="C8" r:id="rId9" xr:uid="{8F8E23BA-2180-4BFE-8EAB-061C98ADB6CC}"/>
-    <hyperlink ref="B7" r:id="rId10" xr:uid="{A1F749FC-9239-4006-9C41-0239F4DC293C}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8DB4FE19-A2BD-4B50-BB01-4E1DBAC4B7D1}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{84508B46-286F-4616-9FFF-E7F2ABB53BFB}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{748E73B4-926F-4F7C-9290-C28569149D78}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{20523112-3FC2-42AD-9B97-D24C8D8C07A2}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{5830DD21-CC70-43F6-A18E-B2A75F0546EB}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{A5C8BAB3-AE7E-44EE-A895-71855DECE82D}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{5944DD7B-AE47-4EE5-9CFD-C7C8F40B81BE}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{8F8E23BA-2180-4BFE-8EAB-061C98ADB6CC}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{A1F749FC-9239-4006-9C41-0239F4DC293C}"/>
+    <hyperlink ref="B2" r:id="rId10" xr:uid="{07C63826-E01D-41DA-B7C2-E56C9E26204A}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{A91B4E36-1FD7-4A79-92CF-02FB9BAD101F}"/>
+    <hyperlink ref="B3" r:id="rId12" xr:uid="{AF2341E4-C257-44FC-B970-62E05D614C03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>